--- a/ucsc.xlsx
+++ b/ucsc.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>WS</t>
   </si>
@@ -817,10 +817,10 @@
         <v>12.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -833,9 +833,15 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -848,9 +854,8 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -862,14 +867,9 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>32</v>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -883,13 +883,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -903,13 +903,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -923,13 +923,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -943,13 +943,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -963,13 +963,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -983,13 +983,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1002,9 +1002,15 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1017,9 +1023,8 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1031,11 +1036,9 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>9</v>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1049,87 +1052,96 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="2">
         <v>11.0</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="5">
-        <v>12.0</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>44</v>
@@ -2206,32 +2218,31 @@
     <row r="1015" ht="15.75" customHeight="1"/>
     <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+  <mergeCells count="24">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
